--- a/plantillas/consulta/Listado_Proyectos.xlsx
+++ b/plantillas/consulta/Listado_Proyectos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92AC1B0-D84F-416B-97C9-3A78EC054980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD9B24-CA47-41D4-946A-3FD5E2389B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>fecha</t>
   </si>
@@ -28,33 +28,15 @@
     <t>hora</t>
   </si>
   <si>
-    <t>Dirección Distrital:</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN EJECUTIVA DE ORGANIZACIÓN ELECTORAL Y GEOESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>titulo1</t>
-  </si>
-  <si>
-    <t>titulo2</t>
-  </si>
-  <si>
     <t>Demarcación Territorial</t>
   </si>
   <si>
     <t>Folio de Registro</t>
   </si>
   <si>
-    <t>Destino o Rubro General</t>
-  </si>
-  <si>
     <t>Nombre del Proyecto</t>
   </si>
   <si>
-    <t>FORMATO 2</t>
-  </si>
-  <si>
     <t>Clave de la UT</t>
   </si>
   <si>
@@ -64,7 +46,7 @@
     <t>Nombre de la Unidad Territorial</t>
   </si>
   <si>
-    <t>SISTEMA DE CÓMPUTO Y VALIDACIONES PARA LAS CONSULTAS CIUDADANAS (SICOVACC)</t>
+    <t>Distrito</t>
   </si>
 </sst>
 </file>
@@ -180,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,23 +186,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,29 +522,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -564,29 +546,25 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -598,45 +576,38 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="G8" s="8" t="s">
         <v>0</v>
       </c>
@@ -646,37 +617,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>9</v>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
